--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Tamara Cordero.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Tamara Cordero.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="470">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -9416,21 +9416,20 @@
       </c>
     </row>
     <row r="46" ht="15.6" customHeight="true">
-      <c r="Z46" s="104" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA46" s="109" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AB46" s="109" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="AC46" s="106" t="n">
-        <v>8.0</v>
-      </c>
+      <c r="Z46" s="104"/>
+      <c r="AA46" s="109"/>
+      <c r="AB46" s="109"/>
+      <c r="AC46" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
     <mergeCell ref="AA40:AC40"/>
     <mergeCell ref="AA33:AC33"/>
     <mergeCell ref="AA34:AC34"/>
@@ -9440,13 +9439,6 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="T32:V32"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Tamara Cordero.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Tamara Cordero.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="471">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -1434,6 +1434,9 @@
   </si>
   <si>
     <t>31/10/2022</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
 </sst>
 </file>
@@ -5750,7 +5753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="494">
+  <cellXfs count="500">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -6890,6 +6893,24 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -7419,36 +7440,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="true"/>
-    <col min="2" max="2" width="6.77734375" customWidth="true"/>
-    <col min="3" max="3" width="6.77734375" customWidth="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true"/>
-    <col min="7" max="7" width="6.77734375" customWidth="true"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true"/>
-    <col min="9" max="9" width="2.77734375" customWidth="true"/>
-    <col min="10" max="10" width="6.77734375" customWidth="true"/>
-    <col min="11" max="11" width="6.77734375" customWidth="true"/>
-    <col min="12" max="12" width="6.77734375" customWidth="true"/>
-    <col min="13" max="13" width="6.77734375" customWidth="true"/>
-    <col min="14" max="14" width="6.77734375" customWidth="true"/>
-    <col min="15" max="15" width="6.77734375" customWidth="true"/>
-    <col min="16" max="16" width="6.77734375" customWidth="true"/>
-    <col min="17" max="17" width="2.77734375" customWidth="true"/>
-    <col min="18" max="18" width="6.77734375" customWidth="true"/>
-    <col min="19" max="19" width="6.77734375" customWidth="true"/>
-    <col min="20" max="20" width="6.77734375" customWidth="true"/>
-    <col min="21" max="21" width="6.77734375" customWidth="true"/>
-    <col min="22" max="22" width="6.77734375" customWidth="true"/>
-    <col min="23" max="23" width="6.77734375" customWidth="true"/>
-    <col min="24" max="24" width="6.77734375" customWidth="true"/>
-    <col min="25" max="25" width="10.0" customWidth="true"/>
-    <col min="26" max="26" width="5.77734375" customWidth="true"/>
-    <col min="27" max="27" width="25.0" customWidth="true"/>
-    <col min="28" max="28" width="25.0" customWidth="true"/>
-    <col min="29" max="29" width="25.0" customWidth="true"/>
-    <col min="30" max="30" width="10.0" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="5.77734375" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.8" customHeight="true">
@@ -9452,23 +9473,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -10048,23 +10069,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -10651,23 +10672,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11245,23 +11266,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11847,23 +11868,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -12042,33 +12063,42 @@
       <c r="B18" s="131" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="G18" s="129" t="n">
-        <f>((E18-C18)*24)-1</f>
-        <v>0.0</v>
+      <c r="C18" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="129" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
       <c r="B19" s="131" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="G19" s="129" t="n">
-        <f>((E19-C19)*24)-1</f>
-        <v>0.0</v>
+      <c r="C19" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="129" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
       <c r="B20" s="131" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="G20" s="129" t="n">
-        <f>((E20-C20)*24)-1</f>
-        <v>0.0</v>
+      <c r="C20" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="129" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
@@ -12085,11 +12115,14 @@
       <c r="B22" s="131" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="G22" s="129" t="n">
-        <f>((E22-C22)*24)-1</f>
-        <v>0.0</v>
+      <c r="C22" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="129" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
@@ -12116,8 +12149,12 @@
       <c r="B25" s="131" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="132"/>
-      <c r="E25" s="132"/>
+      <c r="C25" s="495" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E25" s="495" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G25" s="129" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -12127,8 +12164,12 @@
       <c r="B26" s="131" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="132"/>
-      <c r="E26" s="132"/>
+      <c r="C26" s="495" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E26" s="495" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G26" s="129" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -12138,8 +12179,12 @@
       <c r="B27" s="131" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="132"/>
-      <c r="E27" s="132"/>
+      <c r="C27" s="495" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E27" s="495" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G27" s="129" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -12149,8 +12194,12 @@
       <c r="B28" s="131" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="132"/>
-      <c r="E28" s="132"/>
+      <c r="C28" s="495" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E28" s="495" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G28" s="129" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -12160,8 +12209,12 @@
       <c r="B29" s="131" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="132"/>
-      <c r="E29" s="132"/>
+      <c r="C29" s="495" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E29" s="495" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G29" s="129" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -12191,8 +12244,12 @@
       <c r="B32" s="131" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="132"/>
-      <c r="E32" s="132"/>
+      <c r="C32" s="495" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E32" s="495" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G32" s="129" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -12202,8 +12259,12 @@
       <c r="B33" s="131" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="132"/>
-      <c r="E33" s="132"/>
+      <c r="C33" s="495" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E33" s="495" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G33" s="129" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -12213,8 +12274,12 @@
       <c r="B34" s="131" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="132"/>
-      <c r="E34" s="132"/>
+      <c r="C34" s="495" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E34" s="495" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G34" s="129" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -12224,8 +12289,12 @@
       <c r="B35" s="131" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="132"/>
-      <c r="E35" s="132"/>
+      <c r="C35" s="495" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E35" s="495" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G35" s="129" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -12235,8 +12304,12 @@
       <c r="B36" s="131" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="132"/>
-      <c r="E36" s="132"/>
+      <c r="C36" s="495" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E36" s="495" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G36" s="129" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -12266,8 +12339,12 @@
       <c r="B39" s="131" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="132"/>
-      <c r="E39" s="132"/>
+      <c r="C39" s="495" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E39" s="495" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G39" s="129" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -12277,8 +12354,12 @@
       <c r="B40" s="131" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="132"/>
-      <c r="E40" s="132"/>
+      <c r="C40" s="495" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E40" s="495" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G40" s="129" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -12288,8 +12369,12 @@
       <c r="B41" s="131" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="132"/>
-      <c r="E41" s="132"/>
+      <c r="C41" s="495" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E41" s="495" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G41" s="129" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
@@ -12299,8 +12384,12 @@
       <c r="B42" s="131" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="132"/>
-      <c r="E42" s="132"/>
+      <c r="C42" s="495" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E42" s="495" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G42" s="129" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -12310,8 +12399,12 @@
       <c r="B43" s="131" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="132"/>
-      <c r="E43" s="132"/>
+      <c r="C43" s="495" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E43" s="495" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G43" s="129" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -12341,8 +12434,12 @@
       <c r="B46" s="131" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="132"/>
-      <c r="E46" s="132"/>
+      <c r="C46" s="495" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E46" s="495" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G46" s="129" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
@@ -12449,6 +12546,7 @@
       <c r="H62" s="143"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -12471,23 +12569,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -12645,8 +12743,12 @@
       <c r="B16" s="165" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="166"/>
-      <c r="E16" s="166"/>
+      <c r="C16" s="496" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E16" s="496" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G16" s="163" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -12656,8 +12758,12 @@
       <c r="B17" s="165" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="166"/>
-      <c r="E17" s="166"/>
+      <c r="C17" s="496" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E17" s="496" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G17" s="163" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -12667,8 +12773,12 @@
       <c r="B18" s="165" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="166"/>
-      <c r="E18" s="166"/>
+      <c r="C18" s="496" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E18" s="496" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G18" s="163" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -12678,8 +12788,12 @@
       <c r="B19" s="165" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="166"/>
-      <c r="E19" s="166"/>
+      <c r="C19" s="496" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E19" s="496" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G19" s="163" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -12709,8 +12823,12 @@
       <c r="B22" s="165" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="166"/>
-      <c r="E22" s="166"/>
+      <c r="C22" s="496" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E22" s="496" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G22" s="163" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -12720,8 +12838,12 @@
       <c r="B23" s="165" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="166"/>
-      <c r="E23" s="166"/>
+      <c r="C23" s="496" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E23" s="496" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G23" s="163" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -12731,8 +12853,12 @@
       <c r="B24" s="165" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="166"/>
-      <c r="E24" s="166"/>
+      <c r="C24" s="496" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E24" s="496" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G24" s="163" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -12742,8 +12868,12 @@
       <c r="B25" s="165" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="166"/>
-      <c r="E25" s="166"/>
+      <c r="C25" s="496" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E25" s="496" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G25" s="163" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -12753,8 +12883,12 @@
       <c r="B26" s="165" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="166"/>
-      <c r="E26" s="166"/>
+      <c r="C26" s="496" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E26" s="496" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G26" s="163" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -12784,8 +12918,12 @@
       <c r="B29" s="165" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="166"/>
-      <c r="E29" s="166"/>
+      <c r="C29" s="496" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E29" s="496" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G29" s="163" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -12795,8 +12933,12 @@
       <c r="B30" s="165" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="166"/>
-      <c r="E30" s="166"/>
+      <c r="C30" s="496" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E30" s="496" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G30" s="163" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -12806,8 +12948,12 @@
       <c r="B31" s="165" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="166"/>
-      <c r="E31" s="166"/>
+      <c r="C31" s="496" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E31" s="496" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G31" s="163" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -12817,8 +12963,12 @@
       <c r="B32" s="165" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="166"/>
-      <c r="E32" s="166"/>
+      <c r="C32" s="496" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E32" s="496" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G32" s="163" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -12828,8 +12978,12 @@
       <c r="B33" s="165" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="166"/>
-      <c r="E33" s="166"/>
+      <c r="C33" s="496" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E33" s="496" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G33" s="163" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -12859,8 +13013,12 @@
       <c r="B36" s="165" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="166"/>
-      <c r="E36" s="166"/>
+      <c r="C36" s="496" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E36" s="496" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G36" s="163" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -12870,8 +13028,12 @@
       <c r="B37" s="165" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="166"/>
-      <c r="E37" s="166"/>
+      <c r="C37" s="496" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E37" s="496" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G37" s="163" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -12881,8 +13043,12 @@
       <c r="B38" s="165" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="166"/>
-      <c r="E38" s="166"/>
+      <c r="C38" s="496" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E38" s="496" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G38" s="163" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -12892,8 +13058,12 @@
       <c r="B39" s="165" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="166"/>
-      <c r="E39" s="166"/>
+      <c r="C39" s="496" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E39" s="496" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G39" s="163" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -12903,8 +13073,12 @@
       <c r="B40" s="165" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="166"/>
-      <c r="E40" s="166"/>
+      <c r="C40" s="496" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E40" s="496" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G40" s="163" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -12934,8 +13108,12 @@
       <c r="B43" s="165" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="166"/>
-      <c r="E43" s="166"/>
+      <c r="C43" s="496" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E43" s="496" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G43" s="163" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -13058,6 +13236,7 @@
       <c r="H62" s="177"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="B58:H62"/>
@@ -13080,23 +13259,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13254,8 +13433,12 @@
       <c r="B16" s="199" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="200"/>
-      <c r="E16" s="200"/>
+      <c r="C16" s="499" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E16" s="499" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G16" s="197" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -13265,33 +13448,42 @@
       <c r="B17" s="199" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="200"/>
-      <c r="E17" s="200"/>
-      <c r="G17" s="197" t="n">
-        <f>((E17-C17)*24)-1</f>
-        <v>0.0</v>
+      <c r="C17" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="197" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="true">
       <c r="B18" s="199" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="200"/>
-      <c r="E18" s="200"/>
-      <c r="G18" s="197" t="n">
-        <f>((E18-C18)*24)-1</f>
-        <v>0.0</v>
+      <c r="C18" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="197" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
       <c r="B19" s="199" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="200"/>
-      <c r="E19" s="200"/>
-      <c r="G19" s="197" t="n">
-        <f>((E19-C19)*24)-1</f>
-        <v>0.0</v>
+      <c r="C19" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="197" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
@@ -13318,55 +13510,70 @@
       <c r="B22" s="199" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="200"/>
-      <c r="E22" s="200"/>
-      <c r="G22" s="197" t="n">
-        <f>((E22-C22)*24)-1</f>
-        <v>0.0</v>
+      <c r="C22" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="197" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
       <c r="B23" s="199" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="200"/>
-      <c r="E23" s="200"/>
-      <c r="G23" s="197" t="n">
-        <f>((E23-C23)*24)-1</f>
-        <v>0.0</v>
+      <c r="C23" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="197" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
       <c r="B24" s="199" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="200"/>
-      <c r="E24" s="200"/>
-      <c r="G24" s="197" t="n">
-        <f>((E24-C24)*24)-1</f>
-        <v>0.0</v>
+      <c r="C24" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="197" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
       <c r="B25" s="199" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="200"/>
-      <c r="E25" s="200"/>
-      <c r="G25" s="197" t="n">
-        <f>((E25-C25)*24)-1</f>
-        <v>0.0</v>
+      <c r="C25" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="197" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
       <c r="B26" s="199" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="200"/>
-      <c r="E26" s="200"/>
-      <c r="G26" s="197" t="n">
-        <f>((E26-C26)*24)-1</f>
-        <v>0.0</v>
+      <c r="C26" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="197" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
@@ -13393,55 +13600,70 @@
       <c r="B29" s="199" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="200"/>
-      <c r="E29" s="200"/>
-      <c r="G29" s="197" t="n">
-        <f>((E29-C29)*24)-1</f>
-        <v>0.0</v>
+      <c r="C29" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="197" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
       <c r="B30" s="199" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="200"/>
-      <c r="E30" s="200"/>
-      <c r="G30" s="197" t="n">
-        <f>((E30-C30)*24)-1</f>
-        <v>0.0</v>
+      <c r="C30" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="197" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
       <c r="B31" s="199" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="200"/>
-      <c r="E31" s="200"/>
-      <c r="G31" s="197" t="n">
-        <f>((E31-C31)*24)-1</f>
-        <v>0.0</v>
+      <c r="C31" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="197" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
       <c r="B32" s="199" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="200"/>
-      <c r="E32" s="200"/>
-      <c r="G32" s="197" t="n">
-        <f>((E32-C32)*24)-1</f>
-        <v>0.0</v>
+      <c r="C32" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="197" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
       <c r="B33" s="199" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="200"/>
-      <c r="E33" s="200"/>
-      <c r="G33" s="197" t="n">
-        <f>((E33-C33)*24)-1</f>
-        <v>0.0</v>
+      <c r="C33" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="197" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
@@ -13468,55 +13690,70 @@
       <c r="B36" s="199" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="200"/>
-      <c r="E36" s="200"/>
-      <c r="G36" s="197" t="n">
-        <f>((E36-C36)*24)-1</f>
-        <v>0.0</v>
+      <c r="C36" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="197" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
       <c r="B37" s="199" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="200"/>
-      <c r="E37" s="200"/>
-      <c r="G37" s="197" t="n">
-        <f>((E37-C37)*24)-1</f>
-        <v>0.0</v>
+      <c r="C37" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="197" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
       <c r="B38" s="199" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="200"/>
-      <c r="E38" s="200"/>
-      <c r="G38" s="197" t="n">
-        <f>((E38-C38)*24)-1</f>
-        <v>0.0</v>
+      <c r="C38" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="197" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
       <c r="B39" s="199" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="200"/>
-      <c r="E39" s="200"/>
-      <c r="G39" s="197" t="n">
-        <f>((E39-C39)*24)-1</f>
-        <v>0.0</v>
+      <c r="C39" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="197" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
       <c r="B40" s="199" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="200"/>
-      <c r="E40" s="200"/>
-      <c r="G40" s="197" t="n">
-        <f>((E40-C40)*24)-1</f>
-        <v>0.0</v>
+      <c r="C40" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="197" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
@@ -13543,41 +13780,54 @@
       <c r="B43" s="199" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="200"/>
-      <c r="E43" s="200"/>
-      <c r="G43" s="197" t="n">
-        <f>((E43-C43)*24)-1</f>
-        <v>0.0</v>
+      <c r="C43" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" s="197" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
       <c r="B44" s="199" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="200"/>
-      <c r="E44" s="200"/>
-      <c r="G44" s="197" t="n">
-        <f>((E44-C44)*24)-1</f>
-        <v>0.0</v>
+      <c r="C44" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" s="197" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">
       <c r="B45" s="199" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="200"/>
-      <c r="E45" s="200"/>
-      <c r="G45" s="197" t="n">
-        <f>((E45-C45)*24)-1</f>
-        <v>0.0</v>
+      <c r="C45" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="200" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="197" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="46" ht="14.4" customHeight="true">
       <c r="B46" s="199" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="200"/>
-      <c r="E46" s="200"/>
+      <c r="C46" s="499" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E46" s="499" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G46" s="197" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
@@ -13701,23 +13951,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13875,8 +14125,12 @@
       <c r="B16" s="232" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="233"/>
-      <c r="E16" s="233"/>
+      <c r="C16" s="498" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E16" s="498" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G16" s="230" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -14312,23 +14566,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14932,23 +15186,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -15532,23 +15786,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -16135,23 +16389,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">

--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Tamara Cordero.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Tamara Cordero.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="471">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -5753,7 +5753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="500">
+  <cellXfs count="506">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -6893,6 +6893,24 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
@@ -13929,6 +13947,7 @@
       <c r="H62" s="210"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -14125,10 +14144,10 @@
       <c r="B16" s="232" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="498" t="n">
+      <c r="C16" s="503" t="n">
         <v>0.3958333333333333</v>
       </c>
-      <c r="E16" s="498" t="n">
+      <c r="E16" s="503" t="n">
         <v>0.7708333333333334</v>
       </c>
       <c r="G16" s="230" t="n">
@@ -14160,8 +14179,12 @@
       <c r="B19" s="232" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="233"/>
-      <c r="E19" s="233"/>
+      <c r="C19" s="503" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E19" s="503" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G19" s="230" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -14171,8 +14194,12 @@
       <c r="B20" s="232" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="233"/>
-      <c r="E20" s="233"/>
+      <c r="C20" s="503" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E20" s="503" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G20" s="230" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
@@ -14182,8 +14209,12 @@
       <c r="B21" s="232" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="233"/>
-      <c r="E21" s="233"/>
+      <c r="C21" s="503" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E21" s="503" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G21" s="230" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
@@ -14193,8 +14224,12 @@
       <c r="B22" s="232" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="233"/>
-      <c r="E22" s="233"/>
+      <c r="C22" s="503" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E22" s="503" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G22" s="230" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -14204,8 +14239,12 @@
       <c r="B23" s="232" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="233"/>
-      <c r="E23" s="233"/>
+      <c r="C23" s="503" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E23" s="503" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G23" s="230" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -14235,8 +14274,12 @@
       <c r="B26" s="232" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="233"/>
-      <c r="E26" s="233"/>
+      <c r="C26" s="503" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E26" s="503" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G26" s="230" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -14246,8 +14289,12 @@
       <c r="B27" s="232" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="233"/>
-      <c r="E27" s="233"/>
+      <c r="C27" s="503" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E27" s="503" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G27" s="230" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -14257,8 +14304,12 @@
       <c r="B28" s="232" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="233"/>
-      <c r="E28" s="233"/>
+      <c r="C28" s="503" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E28" s="503" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G28" s="230" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -14318,8 +14369,12 @@
       <c r="B34" s="232" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="233"/>
-      <c r="E34" s="233"/>
+      <c r="C34" s="503" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E34" s="503" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G34" s="230" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -14329,8 +14384,12 @@
       <c r="B35" s="232" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="233"/>
-      <c r="E35" s="233"/>
+      <c r="C35" s="503" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E35" s="503" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G35" s="230" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -14340,8 +14399,12 @@
       <c r="B36" s="232" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="233"/>
-      <c r="E36" s="233"/>
+      <c r="C36" s="503" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E36" s="503" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G36" s="230" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -14351,8 +14414,12 @@
       <c r="B37" s="232" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="233"/>
-      <c r="E37" s="233"/>
+      <c r="C37" s="503" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E37" s="503" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G37" s="230" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -14382,8 +14449,12 @@
       <c r="B40" s="232" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="233"/>
-      <c r="E40" s="233"/>
+      <c r="C40" s="503" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E40" s="503" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G40" s="230" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -14393,8 +14464,12 @@
       <c r="B41" s="232" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="233"/>
-      <c r="E41" s="233"/>
+      <c r="C41" s="503" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E41" s="503" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G41" s="230" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
@@ -14404,8 +14479,12 @@
       <c r="B42" s="232" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="233"/>
-      <c r="E42" s="233"/>
+      <c r="C42" s="503" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E42" s="503" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G42" s="230" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -14415,8 +14494,12 @@
       <c r="B43" s="232" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="233"/>
-      <c r="E43" s="233"/>
+      <c r="C43" s="503" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E43" s="503" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G43" s="230" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -14426,8 +14509,12 @@
       <c r="B44" s="232" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="233"/>
-      <c r="E44" s="233"/>
+      <c r="C44" s="503" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E44" s="503" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G44" s="230" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
@@ -14544,6 +14631,7 @@
       <c r="H62" s="243"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -14750,8 +14838,12 @@
       <c r="B17" s="265" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="266"/>
-      <c r="E17" s="266"/>
+      <c r="C17" s="501" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E17" s="501" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G17" s="263" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -14761,8 +14853,12 @@
       <c r="B18" s="265" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="266"/>
-      <c r="E18" s="266"/>
+      <c r="C18" s="501" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E18" s="501" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G18" s="263" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -14772,8 +14868,12 @@
       <c r="B19" s="265" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="266"/>
-      <c r="E19" s="266"/>
+      <c r="C19" s="501" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E19" s="501" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G19" s="263" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -14783,8 +14883,12 @@
       <c r="B20" s="265" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="266"/>
-      <c r="E20" s="266"/>
+      <c r="C20" s="501" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E20" s="501" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G20" s="263" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
@@ -14794,8 +14898,12 @@
       <c r="B21" s="265" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="266"/>
-      <c r="E21" s="266"/>
+      <c r="C21" s="501" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E21" s="501" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G21" s="263" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
@@ -14825,8 +14933,12 @@
       <c r="B24" s="265" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="266"/>
-      <c r="E24" s="266"/>
+      <c r="C24" s="501" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E24" s="501" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G24" s="263" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -14836,8 +14948,12 @@
       <c r="B25" s="265" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="266"/>
-      <c r="E25" s="266"/>
+      <c r="C25" s="501" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E25" s="501" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G25" s="263" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -14847,8 +14963,12 @@
       <c r="B26" s="265" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="266"/>
-      <c r="E26" s="266"/>
+      <c r="C26" s="501" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E26" s="501" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G26" s="263" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -14858,8 +14978,12 @@
       <c r="B27" s="265" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="266"/>
-      <c r="E27" s="266"/>
+      <c r="C27" s="501" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E27" s="501" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G27" s="263" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -14869,8 +14993,12 @@
       <c r="B28" s="265" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="266"/>
-      <c r="E28" s="266"/>
+      <c r="C28" s="501" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E28" s="501" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G28" s="263" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -14900,8 +15028,12 @@
       <c r="B31" s="265" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="266"/>
-      <c r="E31" s="266"/>
+      <c r="C31" s="501" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E31" s="501" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G31" s="263" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -14911,8 +15043,12 @@
       <c r="B32" s="265" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="266"/>
-      <c r="E32" s="266"/>
+      <c r="C32" s="501" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E32" s="501" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G32" s="263" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -14922,8 +15058,12 @@
       <c r="B33" s="265" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="266"/>
-      <c r="E33" s="266"/>
+      <c r="C33" s="501" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E33" s="501" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G33" s="263" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -14933,8 +15073,12 @@
       <c r="B34" s="265" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="266"/>
-      <c r="E34" s="266"/>
+      <c r="C34" s="501" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E34" s="501" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G34" s="263" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -14944,8 +15088,12 @@
       <c r="B35" s="265" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="266"/>
-      <c r="E35" s="266"/>
+      <c r="C35" s="501" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E35" s="501" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G35" s="263" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -14975,8 +15123,12 @@
       <c r="B38" s="265" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="266"/>
-      <c r="E38" s="266"/>
+      <c r="C38" s="501" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E38" s="501" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G38" s="263" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -14986,8 +15138,12 @@
       <c r="B39" s="265" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="266"/>
-      <c r="E39" s="266"/>
+      <c r="C39" s="501" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E39" s="501" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G39" s="263" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -14997,8 +15153,12 @@
       <c r="B40" s="265" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="266"/>
-      <c r="E40" s="266"/>
+      <c r="C40" s="501" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E40" s="501" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G40" s="263" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -15008,8 +15168,12 @@
       <c r="B41" s="265" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="266"/>
-      <c r="E41" s="266"/>
+      <c r="C41" s="501" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E41" s="501" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G41" s="263" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
@@ -15019,11 +15183,14 @@
       <c r="B42" s="265" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="266"/>
-      <c r="E42" s="266"/>
-      <c r="G42" s="263" t="n">
-        <f>((E42-C42)*24)-1</f>
-        <v>0.0</v>
+      <c r="C42" s="266" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="266" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="263" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="true">
@@ -15050,8 +15217,12 @@
       <c r="B45" s="265" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="266"/>
-      <c r="E45" s="266"/>
+      <c r="C45" s="501" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E45" s="501" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G45" s="263" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
@@ -15061,8 +15232,12 @@
       <c r="B46" s="265" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="266"/>
-      <c r="E46" s="266"/>
+      <c r="C46" s="501" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E46" s="501" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G46" s="263" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
@@ -15164,6 +15339,7 @@
       <c r="H62" s="276"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -15349,8 +15525,12 @@
       <c r="B16" s="297" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="298"/>
-      <c r="E16" s="298"/>
+      <c r="C16" s="505" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E16" s="505" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G16" s="295" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -15360,8 +15540,12 @@
       <c r="B17" s="297" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="298"/>
-      <c r="E17" s="298"/>
+      <c r="C17" s="505" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E17" s="505" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G17" s="295" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -15371,8 +15555,12 @@
       <c r="B18" s="297" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="298"/>
-      <c r="E18" s="298"/>
+      <c r="C18" s="505" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E18" s="505" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G18" s="295" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -15402,8 +15590,12 @@
       <c r="B21" s="297" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="298"/>
-      <c r="E21" s="298"/>
+      <c r="C21" s="505" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E21" s="505" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G21" s="295" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
@@ -15413,8 +15605,12 @@
       <c r="B22" s="297" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="298"/>
-      <c r="E22" s="298"/>
+      <c r="C22" s="505" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E22" s="505" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G22" s="295" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -15424,8 +15620,12 @@
       <c r="B23" s="297" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="298"/>
-      <c r="E23" s="298"/>
+      <c r="C23" s="505" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E23" s="505" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G23" s="295" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -15435,8 +15635,12 @@
       <c r="B24" s="297" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="298"/>
-      <c r="E24" s="298"/>
+      <c r="C24" s="505" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E24" s="505" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G24" s="295" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -15446,8 +15650,12 @@
       <c r="B25" s="297" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="298"/>
-      <c r="E25" s="298"/>
+      <c r="C25" s="505" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E25" s="505" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G25" s="295" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -15477,8 +15685,12 @@
       <c r="B28" s="297" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="298"/>
-      <c r="E28" s="298"/>
+      <c r="C28" s="505" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E28" s="505" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G28" s="295" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -15488,8 +15700,12 @@
       <c r="B29" s="297" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="298"/>
-      <c r="E29" s="298"/>
+      <c r="C29" s="505" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E29" s="505" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G29" s="295" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -15499,8 +15715,12 @@
       <c r="B30" s="297" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="298"/>
-      <c r="E30" s="298"/>
+      <c r="C30" s="505" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E30" s="505" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G30" s="295" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -15510,8 +15730,12 @@
       <c r="B31" s="297" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="298"/>
-      <c r="E31" s="298"/>
+      <c r="C31" s="505" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E31" s="505" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G31" s="295" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -15521,8 +15745,12 @@
       <c r="B32" s="297" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="298"/>
-      <c r="E32" s="298"/>
+      <c r="C32" s="505" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E32" s="505" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G32" s="295" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -15552,8 +15780,12 @@
       <c r="B35" s="297" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="298"/>
-      <c r="E35" s="298"/>
+      <c r="C35" s="505" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E35" s="505" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G35" s="295" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -15563,8 +15795,12 @@
       <c r="B36" s="297" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="298"/>
-      <c r="E36" s="298"/>
+      <c r="C36" s="505" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E36" s="505" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G36" s="295" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -15574,8 +15810,12 @@
       <c r="B37" s="297" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="298"/>
-      <c r="E37" s="298"/>
+      <c r="C37" s="505" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E37" s="505" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G37" s="295" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -15585,8 +15825,12 @@
       <c r="B38" s="297" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="298"/>
-      <c r="E38" s="298"/>
+      <c r="C38" s="505" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E38" s="505" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G38" s="295" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -15596,11 +15840,14 @@
       <c r="B39" s="297" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="298"/>
-      <c r="E39" s="298"/>
-      <c r="G39" s="295" t="n">
-        <f>((E39-C39)*24)-1</f>
-        <v>0.0</v>
+      <c r="C39" s="298" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="298" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="295" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
@@ -15627,8 +15874,12 @@
       <c r="B42" s="297" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="298"/>
-      <c r="E42" s="298"/>
+      <c r="C42" s="505" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E42" s="505" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G42" s="295" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -15638,8 +15889,12 @@
       <c r="B43" s="297" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="298"/>
-      <c r="E43" s="298"/>
+      <c r="C43" s="505" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E43" s="505" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G43" s="295" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -15649,8 +15904,12 @@
       <c r="B44" s="297" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="298"/>
-      <c r="E44" s="298"/>
+      <c r="C44" s="505" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E44" s="505" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G44" s="295" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
@@ -15660,8 +15919,12 @@
       <c r="B45" s="297" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="298"/>
-      <c r="E45" s="298"/>
+      <c r="C45" s="505" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E45" s="505" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G45" s="295" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
@@ -15764,6 +16027,7 @@
       <c r="H62" s="307"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>

--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Tamara Cordero.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Tamara Cordero.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="2022" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="1" sheetId="2" r:id="rId5"/>
@@ -17,7 +20,6 @@
     <sheet state="visible" name="11" sheetId="12" r:id="rId15"/>
     <sheet state="visible" name="12" sheetId="13" r:id="rId16"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -2255,20 +2257,21 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:AC1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.71"/>
-    <col customWidth="1" min="2" max="8" width="6.71"/>
-    <col customWidth="1" min="9" max="9" width="2.71"/>
-    <col customWidth="1" min="10" max="16" width="6.71"/>
-    <col customWidth="1" min="17" max="17" width="2.71"/>
-    <col customWidth="1" min="18" max="24" width="6.71"/>
-    <col customWidth="1" min="25" max="25" width="10.0"/>
-    <col customWidth="1" min="26" max="26" width="5.71"/>
-    <col customWidth="1" min="27" max="29" width="25.0"/>
+    <col min="1" max="1" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="2" max="8" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="10" max="16" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="18" max="24" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="5.71" collapsed="true"/>
+    <col min="27" max="29" customWidth="true" width="25.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
@@ -5219,24 +5222,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -6712,24 +6716,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -8212,24 +8217,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -9703,24 +9709,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -11202,24 +11209,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -12778,6 +12786,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -12799,24 +12808,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -14364,6 +14374,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -14385,24 +14396,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -15953,6 +15965,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -15974,24 +15987,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -17533,6 +17547,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -17554,24 +17569,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -19137,6 +19153,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -19158,24 +19175,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -20722,6 +20740,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -20743,24 +20762,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -22243,24 +22263,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
